--- a/Resources/FeatureInput.xlsx
+++ b/Resources/FeatureInput.xlsx
@@ -1,22 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Yrs of exp</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Job Category</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Alert name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JobSearch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenium, appium, manual testing, </t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>IT-Software/Services</t>
+  </si>
+  <si>
+    <t>BTECH,MTECH,Any post graduate</t>
+  </si>
+  <si>
+    <t>IT software all jobs</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>Telecom ISP, IT-Software/Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT software all jobs,QA Testing </t>
+  </si>
+  <si>
+    <t>Project Lead,Testing Engineer</t>
+  </si>
+  <si>
+    <t>MYALERT</t>
+  </si>
+  <si>
+    <t>Upload CV</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -44,16 +128,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -62,10 +147,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -221,7 +306,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -230,13 +315,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -246,7 +331,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -255,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -264,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -274,12 +359,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -310,7 +395,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -329,7 +414,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -342,13 +427,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -359,8 +564,38 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -372,6 +607,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>